--- a/data/pca/factorExposure/factorExposure_2018-09-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-09-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03762270738799083</v>
+        <v>-0.0297781283104056</v>
       </c>
       <c r="C2">
-        <v>0.04901193767366931</v>
+        <v>-0.01322661251183898</v>
       </c>
       <c r="D2">
-        <v>-0.03599465333902775</v>
+        <v>-0.01032070603964356</v>
       </c>
       <c r="E2">
-        <v>0.04891960953638967</v>
+        <v>0.01390176263159436</v>
       </c>
       <c r="F2">
-        <v>0.1505839329533147</v>
+        <v>-0.02330215412015314</v>
       </c>
       <c r="G2">
-        <v>0.05725239036406649</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.08122802392936038</v>
+      </c>
+      <c r="H2">
+        <v>0.01426210227381447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1239293372919407</v>
+        <v>-0.07922771573670197</v>
       </c>
       <c r="C3">
-        <v>0.008091265434018918</v>
+        <v>0.01850882247815019</v>
       </c>
       <c r="D3">
-        <v>-0.04454145510023805</v>
+        <v>-0.0207793311423017</v>
       </c>
       <c r="E3">
-        <v>0.09192412753304954</v>
+        <v>0.008026550620307589</v>
       </c>
       <c r="F3">
-        <v>0.419120629124458</v>
+        <v>0.01243983545290023</v>
       </c>
       <c r="G3">
-        <v>0.1577778947402002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.2702239085720196</v>
+      </c>
+      <c r="H3">
+        <v>0.03554545907243533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05166587857772792</v>
+        <v>-0.04714361214401677</v>
       </c>
       <c r="C4">
-        <v>0.03829712574239375</v>
+        <v>-0.0009574590021175384</v>
       </c>
       <c r="D4">
-        <v>0.003506150865178225</v>
+        <v>-0.0286245766647295</v>
       </c>
       <c r="E4">
-        <v>0.06904094216928372</v>
+        <v>-0.02098265378793764</v>
       </c>
       <c r="F4">
-        <v>0.06878322600803448</v>
+        <v>-0.05954334565826745</v>
       </c>
       <c r="G4">
-        <v>0.05354466065636112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04768018602677087</v>
+      </c>
+      <c r="H4">
+        <v>0.02640900686388981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01176698739780438</v>
+        <v>-0.0295617487727927</v>
       </c>
       <c r="C6">
-        <v>-0.0003034428392440937</v>
+        <v>-0.001541881202189372</v>
       </c>
       <c r="D6">
-        <v>-0.0132079020338175</v>
+        <v>-0.03531796214901258</v>
       </c>
       <c r="E6">
-        <v>0.01281099491728643</v>
+        <v>-0.005554172127873163</v>
       </c>
       <c r="F6">
-        <v>0.01343453594873298</v>
+        <v>-0.03683378601413444</v>
       </c>
       <c r="G6">
-        <v>-0.0137901863094552</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01412373745021732</v>
+      </c>
+      <c r="H6">
+        <v>0.05213334605125446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02721339854141631</v>
+        <v>-0.02044746001469265</v>
       </c>
       <c r="C7">
-        <v>0.02110781735139602</v>
+        <v>-0.001285889085477875</v>
       </c>
       <c r="D7">
-        <v>-0.02951717050746915</v>
+        <v>-0.01657231259204537</v>
       </c>
       <c r="E7">
-        <v>0.0402556575635412</v>
+        <v>-0.03595037540318866</v>
       </c>
       <c r="F7">
-        <v>0.07220301600546153</v>
+        <v>-0.02487694999299875</v>
       </c>
       <c r="G7">
-        <v>0.04634391224677566</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.03703638115409937</v>
+      </c>
+      <c r="H7">
+        <v>0.0133770700700719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01217674020494965</v>
+        <v>-0.003017810494407813</v>
       </c>
       <c r="C8">
-        <v>0.01377809451160444</v>
+        <v>0.001510399111749262</v>
       </c>
       <c r="D8">
-        <v>0.006202833012199927</v>
+        <v>-0.008538034079663146</v>
       </c>
       <c r="E8">
-        <v>0.0741971984328883</v>
+        <v>-0.01214654356108231</v>
       </c>
       <c r="F8">
-        <v>0.09212638736178227</v>
+        <v>-0.02674800026596748</v>
       </c>
       <c r="G8">
-        <v>0.0511549022328324</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.05352213744301389</v>
+      </c>
+      <c r="H8">
+        <v>0.006090705250040788</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0432726939740244</v>
+        <v>-0.0379043920771738</v>
       </c>
       <c r="C9">
-        <v>0.03306035272026488</v>
+        <v>0.002674584970175961</v>
       </c>
       <c r="D9">
-        <v>0.01530555796379717</v>
+        <v>-0.02338991710865571</v>
       </c>
       <c r="E9">
-        <v>0.06707041686181966</v>
+        <v>-0.01866712726586982</v>
       </c>
       <c r="F9">
-        <v>0.07084656221530744</v>
+        <v>-0.03787769183577767</v>
       </c>
       <c r="G9">
-        <v>0.04170756666616257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.05984427546870578</v>
+      </c>
+      <c r="H9">
+        <v>0.02471052986356717</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05566959767647323</v>
+        <v>-0.09162430233226479</v>
       </c>
       <c r="C10">
-        <v>0.04550855100575165</v>
+        <v>0.03853006407023805</v>
       </c>
       <c r="D10">
-        <v>0.01293954705960033</v>
+        <v>0.1437634348796667</v>
       </c>
       <c r="E10">
-        <v>-0.1115572068936685</v>
+        <v>0.01931273356162066</v>
       </c>
       <c r="F10">
-        <v>0.05309021258568397</v>
+        <v>0.0787441770406198</v>
       </c>
       <c r="G10">
-        <v>-0.01016794628034865</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02631916111829091</v>
+      </c>
+      <c r="H10">
+        <v>0.004249058071474533</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03271633713598667</v>
+        <v>-0.02241150890616679</v>
       </c>
       <c r="C11">
-        <v>0.01247053326647584</v>
+        <v>0.009843661163851249</v>
       </c>
       <c r="D11">
-        <v>-0.01525886511728974</v>
+        <v>-0.03182737279894334</v>
       </c>
       <c r="E11">
-        <v>0.03600393241149902</v>
+        <v>0.003552910325532004</v>
       </c>
       <c r="F11">
-        <v>0.03815360738343398</v>
+        <v>-0.02380904042597618</v>
       </c>
       <c r="G11">
-        <v>0.01156574161028244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.03490081754943298</v>
+      </c>
+      <c r="H11">
+        <v>0.02684094320419314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04013866702969154</v>
+        <v>-0.03156578289597704</v>
       </c>
       <c r="C12">
-        <v>0.01362017133740669</v>
+        <v>0.00898461443320097</v>
       </c>
       <c r="D12">
-        <v>-0.002136021889659834</v>
+        <v>-0.03066873397562412</v>
       </c>
       <c r="E12">
-        <v>0.04417795873865968</v>
+        <v>-0.007285245936912035</v>
       </c>
       <c r="F12">
-        <v>0.01933234957773557</v>
+        <v>-0.0269826747095339</v>
       </c>
       <c r="G12">
-        <v>0.009746304279284053</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.01237812156859108</v>
+      </c>
+      <c r="H12">
+        <v>0.01383752031910492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0191516525503583</v>
+        <v>-0.02480520146136016</v>
       </c>
       <c r="C13">
-        <v>0.02462418384872162</v>
+        <v>-0.01207550142692959</v>
       </c>
       <c r="D13">
-        <v>-0.03448746355501549</v>
+        <v>-0.002330998740952873</v>
       </c>
       <c r="E13">
-        <v>0.0202203934039192</v>
+        <v>0.01623024034029968</v>
       </c>
       <c r="F13">
-        <v>0.09370075717133811</v>
+        <v>-0.02132866583074722</v>
       </c>
       <c r="G13">
-        <v>0.02986835172327576</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.06603315860978787</v>
+      </c>
+      <c r="H13">
+        <v>0.02396113274812478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01125721731760761</v>
+        <v>-0.01556643257209096</v>
       </c>
       <c r="C14">
-        <v>0.02239519332342287</v>
+        <v>0.0009694893125682609</v>
       </c>
       <c r="D14">
-        <v>-0.002712272874410066</v>
+        <v>-0.000870180362859051</v>
       </c>
       <c r="E14">
-        <v>0.03956572741593667</v>
+        <v>-0.008506504956430188</v>
       </c>
       <c r="F14">
-        <v>0.07070010794279037</v>
+        <v>-0.02596424025609645</v>
       </c>
       <c r="G14">
-        <v>0.05862865520078242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04446374382710485</v>
+      </c>
+      <c r="H14">
+        <v>-0.0201181260660705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02504083185221954</v>
+        <v>-0.02336140239746399</v>
       </c>
       <c r="C16">
-        <v>0.01381709652397189</v>
+        <v>0.0103207034154312</v>
       </c>
       <c r="D16">
-        <v>-0.0126657401366321</v>
+        <v>-0.02725359604323697</v>
       </c>
       <c r="E16">
-        <v>0.03421680840118846</v>
+        <v>-0.001230993334467055</v>
       </c>
       <c r="F16">
-        <v>0.04124176846019491</v>
+        <v>-0.02498598608205648</v>
       </c>
       <c r="G16">
-        <v>0.01562992365331299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.03029021877912229</v>
+      </c>
+      <c r="H16">
+        <v>0.0208474625270752</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03798275210385061</v>
+        <v>-0.03295426872767197</v>
       </c>
       <c r="C19">
-        <v>0.01385915060465421</v>
+        <v>0.002509735837707643</v>
       </c>
       <c r="D19">
-        <v>-0.02006938082915255</v>
+        <v>-0.01004253485101626</v>
       </c>
       <c r="E19">
-        <v>0.05154754112474855</v>
+        <v>0.001300536380578612</v>
       </c>
       <c r="F19">
-        <v>0.1041277201957307</v>
+        <v>-0.03192183215570792</v>
       </c>
       <c r="G19">
-        <v>0.03692054554749551</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.07001514272960033</v>
+      </c>
+      <c r="H19">
+        <v>0.03743431037570783</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.004716208720920934</v>
+        <v>-0.006398890044579312</v>
       </c>
       <c r="C20">
-        <v>0.02273138897629619</v>
+        <v>-0.007246846162168918</v>
       </c>
       <c r="D20">
-        <v>-0.007286417213275801</v>
+        <v>-0.00192058076618095</v>
       </c>
       <c r="E20">
-        <v>0.03464963494713712</v>
+        <v>-0.001504990349603736</v>
       </c>
       <c r="F20">
-        <v>0.06953951841251933</v>
+        <v>-0.01782722558189759</v>
       </c>
       <c r="G20">
-        <v>0.05650909475758577</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.05021889426671872</v>
+      </c>
+      <c r="H20">
+        <v>-0.010024589991217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.003765529371355048</v>
+        <v>-0.01995119214658072</v>
       </c>
       <c r="C21">
-        <v>-0.001241894926056407</v>
+        <v>-0.005407390026205313</v>
       </c>
       <c r="D21">
-        <v>-0.003594707066754221</v>
+        <v>-0.001261971202999127</v>
       </c>
       <c r="E21">
-        <v>0.03595381046463021</v>
+        <v>-0.01314308265066711</v>
       </c>
       <c r="F21">
-        <v>0.07887333157425637</v>
+        <v>-0.008819169165817761</v>
       </c>
       <c r="G21">
-        <v>0.010819693313508</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.05486762128699087</v>
+      </c>
+      <c r="H21">
+        <v>0.007773723855898613</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02838730532199278</v>
+        <v>-0.02200999181353899</v>
       </c>
       <c r="C24">
-        <v>0.01380888096494723</v>
+        <v>0.004803034394460521</v>
       </c>
       <c r="D24">
-        <v>-0.009629018073602218</v>
+        <v>-0.02789955915090815</v>
       </c>
       <c r="E24">
-        <v>0.02751311546689849</v>
+        <v>-0.001186350250647463</v>
       </c>
       <c r="F24">
-        <v>0.03857094197977719</v>
+        <v>-0.02088610947130088</v>
       </c>
       <c r="G24">
-        <v>0.005492809557606514</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02905194310910896</v>
+      </c>
+      <c r="H24">
+        <v>0.0265178665405203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03164861256915751</v>
+        <v>-0.03313033297148019</v>
       </c>
       <c r="C25">
-        <v>0.01155032051514567</v>
+        <v>0.004286077493691691</v>
       </c>
       <c r="D25">
-        <v>-0.007098805405898832</v>
+        <v>-0.02329291909935854</v>
       </c>
       <c r="E25">
-        <v>0.03539942384236655</v>
+        <v>-0.001780887518052674</v>
       </c>
       <c r="F25">
-        <v>0.03497464361198846</v>
+        <v>-0.02510331947747985</v>
       </c>
       <c r="G25">
-        <v>-0.002865574530350189</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.03279374523724645</v>
+      </c>
+      <c r="H25">
+        <v>0.02865025003496129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.018641859870506</v>
+        <v>-0.01863415796630571</v>
       </c>
       <c r="C26">
-        <v>0.001249163410096187</v>
+        <v>-0.01664911830962553</v>
       </c>
       <c r="D26">
-        <v>-0.03538592844262744</v>
+        <v>-0.003148588243667269</v>
       </c>
       <c r="E26">
-        <v>0.04265984708327442</v>
+        <v>0.006123385789171063</v>
       </c>
       <c r="F26">
-        <v>0.05644143158109455</v>
+        <v>-0.005998747363346605</v>
       </c>
       <c r="G26">
-        <v>0.02604991184559837</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03743619863486931</v>
+      </c>
+      <c r="H26">
+        <v>-0.00337706914428972</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07534988749971064</v>
+        <v>-0.03227085907004795</v>
       </c>
       <c r="C27">
-        <v>0.05091374603910481</v>
+        <v>0.01502403887389554</v>
       </c>
       <c r="D27">
-        <v>-0.0006235880358818383</v>
+        <v>-0.009445365527996753</v>
       </c>
       <c r="E27">
-        <v>0.05801864179456429</v>
+        <v>-0.004010332812507751</v>
       </c>
       <c r="F27">
-        <v>0.05911596001796277</v>
+        <v>-0.02733592260893896</v>
       </c>
       <c r="G27">
-        <v>0.05222623102888768</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.02777202342647406</v>
+      </c>
+      <c r="H27">
+        <v>-0.002007776594485492</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0814913809804074</v>
+        <v>-0.1409249028122694</v>
       </c>
       <c r="C28">
-        <v>0.06296729606751027</v>
+        <v>0.04529793487518179</v>
       </c>
       <c r="D28">
-        <v>0.03238253097291713</v>
+        <v>0.2143446113773372</v>
       </c>
       <c r="E28">
-        <v>-0.1790269474897786</v>
+        <v>0.02421409525914504</v>
       </c>
       <c r="F28">
-        <v>0.07163917412505906</v>
+        <v>0.1073542480331573</v>
       </c>
       <c r="G28">
-        <v>0.01591159995450017</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.01250529995324504</v>
+      </c>
+      <c r="H28">
+        <v>-0.00937671071815588</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01874819981880904</v>
+        <v>-0.02006362273577795</v>
       </c>
       <c r="C29">
-        <v>0.02501529499214631</v>
+        <v>0.003425399809558564</v>
       </c>
       <c r="D29">
-        <v>0.006454869068283438</v>
+        <v>-0.002863012357637998</v>
       </c>
       <c r="E29">
-        <v>0.0584514217130522</v>
+        <v>-0.01092020194188668</v>
       </c>
       <c r="F29">
-        <v>0.04959536951938397</v>
+        <v>-0.02896382503628899</v>
       </c>
       <c r="G29">
-        <v>0.06122594561988579</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03580006563413547</v>
+      </c>
+      <c r="H29">
+        <v>-0.02143666170059217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08666392773691844</v>
+        <v>-0.05483233321754419</v>
       </c>
       <c r="C30">
-        <v>0.05697221420507183</v>
+        <v>0.0004480168996940167</v>
       </c>
       <c r="D30">
-        <v>-0.03601944739138576</v>
+        <v>-0.05415554117523329</v>
       </c>
       <c r="E30">
-        <v>0.08777002496870952</v>
+        <v>0.03531540552334987</v>
       </c>
       <c r="F30">
-        <v>0.05620865318997218</v>
+        <v>-0.07654601225423628</v>
       </c>
       <c r="G30">
-        <v>0.02529257676500977</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.06335426447852764</v>
+      </c>
+      <c r="H30">
+        <v>0.03575222223445406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05981702768283408</v>
+        <v>-0.05406723884177186</v>
       </c>
       <c r="C31">
-        <v>0.01717825753374342</v>
+        <v>0.01850543139665506</v>
       </c>
       <c r="D31">
-        <v>-0.04877899774982738</v>
+        <v>-0.02431513200694351</v>
       </c>
       <c r="E31">
-        <v>0.03886418364471148</v>
+        <v>0.009655486916277153</v>
       </c>
       <c r="F31">
-        <v>0.04000937899993184</v>
+        <v>-0.02212395763165389</v>
       </c>
       <c r="G31">
-        <v>0.08231392319239476</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.0240644017291198</v>
+      </c>
+      <c r="H31">
+        <v>-0.01691563927766164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01698542305089005</v>
+        <v>-0.01148122274167783</v>
       </c>
       <c r="C32">
-        <v>0.02452826656410489</v>
+        <v>0.01598253130206</v>
       </c>
       <c r="D32">
-        <v>0.002627962063065632</v>
+        <v>0.007686100337769127</v>
       </c>
       <c r="E32">
-        <v>0.07119015415454094</v>
+        <v>-0.01805525772689429</v>
       </c>
       <c r="F32">
-        <v>0.06812948194584433</v>
+        <v>-0.04305359607396391</v>
       </c>
       <c r="G32">
-        <v>0.03543519921189436</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.05239087787381409</v>
+      </c>
+      <c r="H32">
+        <v>0.04164516018698734</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05294144779792406</v>
+        <v>-0.0379507122831422</v>
       </c>
       <c r="C33">
-        <v>0.004212418651624894</v>
+        <v>0.002752021961664289</v>
       </c>
       <c r="D33">
-        <v>-0.0454426180385429</v>
+        <v>-0.03106680908063911</v>
       </c>
       <c r="E33">
-        <v>0.07407531352195809</v>
+        <v>0.02294945272069844</v>
       </c>
       <c r="F33">
-        <v>0.0946262365344455</v>
+        <v>-0.01562633212269443</v>
       </c>
       <c r="G33">
-        <v>0.03239278287089896</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.06225065561939001</v>
+      </c>
+      <c r="H33">
+        <v>0.01501499133022304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03051098138590505</v>
+        <v>-0.02621309359656099</v>
       </c>
       <c r="C34">
-        <v>0.01769330433237199</v>
+        <v>0.01871827177822799</v>
       </c>
       <c r="D34">
-        <v>-0.01194719341092837</v>
+        <v>-0.02773731673035001</v>
       </c>
       <c r="E34">
-        <v>0.04162110317415377</v>
+        <v>-0.00574228200247551</v>
       </c>
       <c r="F34">
-        <v>0.04201023718437866</v>
+        <v>-0.02630193704776084</v>
       </c>
       <c r="G34">
-        <v>0.005808958805547862</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02751996099519065</v>
+      </c>
+      <c r="H34">
+        <v>0.02423415457092608</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01287149831319913</v>
+        <v>-0.01877121373694718</v>
       </c>
       <c r="C36">
-        <v>0.01356744698391379</v>
+        <v>-0.002809002050271979</v>
       </c>
       <c r="D36">
-        <v>-0.0009494255162942274</v>
+        <v>0.003498263968103423</v>
       </c>
       <c r="E36">
-        <v>0.02972215049600724</v>
+        <v>-0.002794055590315788</v>
       </c>
       <c r="F36">
-        <v>0.02692031134937882</v>
+        <v>-0.008930797536416584</v>
       </c>
       <c r="G36">
-        <v>0.03246171803429961</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01966832259404163</v>
+      </c>
+      <c r="H36">
+        <v>-0.005432514514540469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005919713763948377</v>
+        <v>-0.01660299693599417</v>
       </c>
       <c r="C38">
-        <v>-0.004520153271374415</v>
+        <v>0.01657290852890355</v>
       </c>
       <c r="D38">
-        <v>0.01123401752991033</v>
+        <v>0.001769730742881376</v>
       </c>
       <c r="E38">
-        <v>-0.007565983995028914</v>
+        <v>-0.005681782674864126</v>
       </c>
       <c r="F38">
-        <v>0.005927720399671289</v>
+        <v>-0.009274950992020836</v>
       </c>
       <c r="G38">
-        <v>-0.006184770835465809</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.0278032545925653</v>
+      </c>
+      <c r="H38">
+        <v>0.0205711285814125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03854449307322921</v>
+        <v>-0.02375500548555867</v>
       </c>
       <c r="C39">
-        <v>0.02323707074255433</v>
+        <v>0.002922431623376338</v>
       </c>
       <c r="D39">
-        <v>-0.02981378324265288</v>
+        <v>-0.06477618057822668</v>
       </c>
       <c r="E39">
-        <v>0.04375884088947805</v>
+        <v>0.001696519292048036</v>
       </c>
       <c r="F39">
-        <v>0.04647269799467026</v>
+        <v>-0.04557157750144578</v>
       </c>
       <c r="G39">
-        <v>0.01009176687271031</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.05512407264829614</v>
+      </c>
+      <c r="H39">
+        <v>0.04924010813390588</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02986022011778049</v>
+        <v>-0.0276432271280268</v>
       </c>
       <c r="C40">
-        <v>0.04018047933342809</v>
+        <v>0.001966122110443146</v>
       </c>
       <c r="D40">
-        <v>-0.05532153682624082</v>
+        <v>-0.02070690277441652</v>
       </c>
       <c r="E40">
-        <v>0.03818031953797357</v>
+        <v>0.01951389971703289</v>
       </c>
       <c r="F40">
-        <v>0.09101739389874412</v>
+        <v>-0.03690232234500294</v>
       </c>
       <c r="G40">
-        <v>0.0404119158902112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.04225282492043714</v>
+      </c>
+      <c r="H40">
+        <v>0.04287565542225046</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.001468345033443053</v>
+        <v>-0.008069299528306127</v>
       </c>
       <c r="C41">
-        <v>-0.006900746993399997</v>
+        <v>-0.0007191227703704439</v>
       </c>
       <c r="D41">
-        <v>-0.007107307212449183</v>
+        <v>0.009100233033534036</v>
       </c>
       <c r="E41">
-        <v>0.02233254171327125</v>
+        <v>0.001672564838424902</v>
       </c>
       <c r="F41">
-        <v>0.01569135961805939</v>
+        <v>0.004114139446641762</v>
       </c>
       <c r="G41">
-        <v>0.06877367837982894</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.008550908274680949</v>
+      </c>
+      <c r="H41">
+        <v>-0.01867998182752558</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3596624856406468</v>
+        <v>-0.1966182163551773</v>
       </c>
       <c r="C42">
-        <v>-0.8908441217077735</v>
+        <v>-0.1009257833285006</v>
       </c>
       <c r="D42">
-        <v>-0.1901192693323093</v>
+        <v>-0.5746880677016079</v>
       </c>
       <c r="E42">
-        <v>-0.09685991338227017</v>
+        <v>0.1202309099482613</v>
       </c>
       <c r="F42">
-        <v>-0.02397966654599847</v>
+        <v>0.7642096741939171</v>
       </c>
       <c r="G42">
-        <v>0.02369928663621347</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.07041235463439142</v>
+      </c>
+      <c r="H42">
+        <v>0.01429910303530084</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.006779172250511414</v>
+        <v>-0.006640852605064023</v>
       </c>
       <c r="C43">
-        <v>-0.002650031452268801</v>
+        <v>-0.002603260615101852</v>
       </c>
       <c r="D43">
-        <v>-0.009966475662402292</v>
+        <v>0.0123572584150053</v>
       </c>
       <c r="E43">
-        <v>0.02425869166005437</v>
+        <v>0.005988302815874754</v>
       </c>
       <c r="F43">
-        <v>0.0342257049850127</v>
+        <v>0.009188341816340631</v>
       </c>
       <c r="G43">
-        <v>0.05842914157611705</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01711361468866414</v>
+      </c>
+      <c r="H43">
+        <v>-0.01128387937089266</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01972363383363363</v>
+        <v>-0.01321771350609537</v>
       </c>
       <c r="C44">
-        <v>0.003934716055940217</v>
+        <v>0.0005319664687809962</v>
       </c>
       <c r="D44">
-        <v>-0.02411324492679248</v>
+        <v>-0.02216953064805332</v>
       </c>
       <c r="E44">
-        <v>0.06918744098823271</v>
+        <v>-0.001504406617116718</v>
       </c>
       <c r="F44">
-        <v>0.1933438326204937</v>
+        <v>-0.006061887790600807</v>
       </c>
       <c r="G44">
-        <v>0.1569165244928421</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.08801816106671734</v>
+      </c>
+      <c r="H44">
+        <v>0.01307937508066359</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01794903730468716</v>
+        <v>-0.02014351531144258</v>
       </c>
       <c r="C46">
-        <v>0.02399209322563674</v>
+        <v>-0.0005803980888505734</v>
       </c>
       <c r="D46">
-        <v>-0.01893359855787628</v>
+        <v>-0.005431793347350051</v>
       </c>
       <c r="E46">
-        <v>0.06810665964858699</v>
+        <v>0.001273754118631104</v>
       </c>
       <c r="F46">
-        <v>0.06972046002421092</v>
+        <v>-0.03353847867934302</v>
       </c>
       <c r="G46">
-        <v>0.04606872272322245</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05716502823416159</v>
+      </c>
+      <c r="H46">
+        <v>-0.01508130988839377</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09534204329550976</v>
+        <v>-0.07460314390053027</v>
       </c>
       <c r="C47">
-        <v>0.03500514765321005</v>
+        <v>0.03581647424205</v>
       </c>
       <c r="D47">
-        <v>-0.02547505387611754</v>
+        <v>-0.0297171992014637</v>
       </c>
       <c r="E47">
-        <v>0.0427162910306367</v>
+        <v>0.005425612382698753</v>
       </c>
       <c r="F47">
-        <v>0.01074147440624284</v>
+        <v>-0.03283281567833403</v>
       </c>
       <c r="G47">
-        <v>0.09423045233165178</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.008908366463918769</v>
+      </c>
+      <c r="H47">
+        <v>-0.03285435189885032</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01124006277847706</v>
+        <v>-0.01879132481553931</v>
       </c>
       <c r="C48">
-        <v>0.00672835839618638</v>
+        <v>0.007059293370990907</v>
       </c>
       <c r="D48">
-        <v>-0.01350091692015945</v>
+        <v>-0.003335076264861113</v>
       </c>
       <c r="E48">
-        <v>0.03959190428663284</v>
+        <v>0.001664528690437817</v>
       </c>
       <c r="F48">
-        <v>0.04135335660902346</v>
+        <v>-0.0115286986653</v>
       </c>
       <c r="G48">
-        <v>0.01049152348841478</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.0271690841710388</v>
+      </c>
+      <c r="H48">
+        <v>-0.001179833987775398</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08738076211321923</v>
+        <v>-0.06652903806700172</v>
       </c>
       <c r="C50">
-        <v>0.01532270227893254</v>
+        <v>0.02909149175447357</v>
       </c>
       <c r="D50">
-        <v>-0.03680721672632219</v>
+        <v>-0.04241573178523245</v>
       </c>
       <c r="E50">
-        <v>0.06084698050280896</v>
+        <v>-0.009748634627759231</v>
       </c>
       <c r="F50">
-        <v>0.02656376828205945</v>
+        <v>-0.02840592276626954</v>
       </c>
       <c r="G50">
-        <v>0.02600427756299813</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.02345611937217863</v>
+      </c>
+      <c r="H50">
+        <v>-0.02880693980221968</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02566527193683293</v>
+        <v>-0.02060437628429095</v>
       </c>
       <c r="C51">
-        <v>0.01936585367767627</v>
+        <v>0.001548708274887398</v>
       </c>
       <c r="D51">
-        <v>-0.0326505887215068</v>
+        <v>0.01008549383478463</v>
       </c>
       <c r="E51">
-        <v>0.03739263326852448</v>
+        <v>0.007130147153481078</v>
       </c>
       <c r="F51">
-        <v>0.1299686167364079</v>
+        <v>0.0009103333332300554</v>
       </c>
       <c r="G51">
-        <v>0.0353412710306823</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.0737206199169289</v>
+      </c>
+      <c r="H51">
+        <v>0.02317449561620531</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1038826102101839</v>
+        <v>-0.09494019938764936</v>
       </c>
       <c r="C53">
-        <v>0.049327494709832</v>
+        <v>0.04479663986369493</v>
       </c>
       <c r="D53">
-        <v>-0.04209641909637352</v>
+        <v>-0.05770796224980031</v>
       </c>
       <c r="E53">
-        <v>0.04852803020989391</v>
+        <v>0.003587334294214528</v>
       </c>
       <c r="F53">
-        <v>-0.05367268280740262</v>
+        <v>-0.06672146124743403</v>
       </c>
       <c r="G53">
-        <v>0.04988115125564101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.05619233527437156</v>
+      </c>
+      <c r="H53">
+        <v>-0.03650440611011389</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01790485204842064</v>
+        <v>-0.02351594347581338</v>
       </c>
       <c r="C54">
-        <v>0.03823722793260008</v>
+        <v>0.01475599777623146</v>
       </c>
       <c r="D54">
-        <v>-0.0007976100381916651</v>
+        <v>0.02401238689010693</v>
       </c>
       <c r="E54">
-        <v>0.03479488908619392</v>
+        <v>-0.00395065825054265</v>
       </c>
       <c r="F54">
-        <v>0.07520156904663852</v>
+        <v>-0.01264987853004203</v>
       </c>
       <c r="G54">
-        <v>0.07534449299928395</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03841749307346131</v>
+      </c>
+      <c r="H54">
+        <v>-0.01761296111359497</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1004759683330847</v>
+        <v>-0.08097542600965389</v>
       </c>
       <c r="C55">
-        <v>0.03253889796907023</v>
+        <v>0.03903482311026314</v>
       </c>
       <c r="D55">
-        <v>-0.002107969943759593</v>
+        <v>-0.05810131250607354</v>
       </c>
       <c r="E55">
-        <v>0.0562589328411083</v>
+        <v>-0.008589773844548822</v>
       </c>
       <c r="F55">
-        <v>-0.04305829210266161</v>
+        <v>-0.0559455395512903</v>
       </c>
       <c r="G55">
-        <v>0.07768321442776639</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.03604032657378971</v>
+      </c>
+      <c r="H55">
+        <v>-0.04750205493174114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1455129155101772</v>
+        <v>-0.1277849559485947</v>
       </c>
       <c r="C56">
-        <v>0.07715775648232598</v>
+        <v>0.06651011694057109</v>
       </c>
       <c r="D56">
-        <v>-0.02828336489838234</v>
+        <v>-0.07679822227406048</v>
       </c>
       <c r="E56">
-        <v>0.06460998867747737</v>
+        <v>-0.000356635949310367</v>
       </c>
       <c r="F56">
-        <v>-0.1592482508961528</v>
+        <v>-0.09376674002075018</v>
       </c>
       <c r="G56">
-        <v>0.0279995572788657</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1028737320774119</v>
+      </c>
+      <c r="H56">
+        <v>-0.02838672298207183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04502962048591927</v>
+        <v>-0.04485498097134689</v>
       </c>
       <c r="C57">
-        <v>0.01121036839618646</v>
+        <v>-0.00538701134257839</v>
       </c>
       <c r="D57">
-        <v>-0.03587006773760842</v>
+        <v>-0.01932637164740259</v>
       </c>
       <c r="E57">
-        <v>0.007422277077543019</v>
+        <v>0.01169149900737671</v>
       </c>
       <c r="F57">
-        <v>0.07868276334847182</v>
+        <v>-0.02420863365024999</v>
       </c>
       <c r="G57">
-        <v>0.0192186107900479</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.06239495838371299</v>
+      </c>
+      <c r="H57">
+        <v>0.009898737569103056</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1942919967461859</v>
+        <v>-0.1438079024239489</v>
       </c>
       <c r="C58">
-        <v>0.0531225115388062</v>
+        <v>0.05193701321022177</v>
       </c>
       <c r="D58">
-        <v>-0.110177617775967</v>
+        <v>-0.1254495573903498</v>
       </c>
       <c r="E58">
-        <v>0.259015310825609</v>
+        <v>0.1143467290673736</v>
       </c>
       <c r="F58">
-        <v>0.2179662240233362</v>
+        <v>-0.06026525026316944</v>
       </c>
       <c r="G58">
-        <v>-0.201823185224507</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.6812021358327564</v>
+      </c>
+      <c r="H58">
+        <v>-0.5404542666462691</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.07750150985088378</v>
+        <v>-0.1429370589706605</v>
       </c>
       <c r="C59">
-        <v>0.08563424805374943</v>
+        <v>0.05240255550638653</v>
       </c>
       <c r="D59">
-        <v>0.02224509119531264</v>
+        <v>0.2125067409174</v>
       </c>
       <c r="E59">
-        <v>-0.1501098537113977</v>
+        <v>0.04162471302275551</v>
       </c>
       <c r="F59">
-        <v>0.06775566340219118</v>
+        <v>0.08814330855360517</v>
       </c>
       <c r="G59">
-        <v>-0.007720010649654736</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.02062542756684191</v>
+      </c>
+      <c r="H59">
+        <v>0.02108191509095993</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1672822520192221</v>
+        <v>-0.1671305390672934</v>
       </c>
       <c r="C60">
-        <v>0.0594478906448831</v>
+        <v>0.04982818299053884</v>
       </c>
       <c r="D60">
-        <v>-0.07340595613401739</v>
+        <v>-0.01460112855124705</v>
       </c>
       <c r="E60">
-        <v>0.03030426726999307</v>
+        <v>0.05567541800413955</v>
       </c>
       <c r="F60">
-        <v>0.0766980468575351</v>
+        <v>-0.05727092281570523</v>
       </c>
       <c r="G60">
-        <v>-0.3331795682537804</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.1293092663104682</v>
+      </c>
+      <c r="H60">
+        <v>0.3750433705680765</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02168024960351449</v>
+        <v>-0.02356921716240613</v>
       </c>
       <c r="C61">
-        <v>0.01266870268986588</v>
+        <v>0.008526677795058401</v>
       </c>
       <c r="D61">
-        <v>-0.005833165093675052</v>
+        <v>-0.03399242025353237</v>
       </c>
       <c r="E61">
-        <v>0.02015911631107508</v>
+        <v>-0.002724651947217096</v>
       </c>
       <c r="F61">
-        <v>0.03482053513187202</v>
+        <v>-0.03205912137668276</v>
       </c>
       <c r="G61">
-        <v>0.007496588993649109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.03214630056214668</v>
+      </c>
+      <c r="H61">
+        <v>0.03707189170378807</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01921098551112528</v>
+        <v>-0.01465628212446289</v>
       </c>
       <c r="C63">
-        <v>0.01772615526287969</v>
+        <v>0.0001874516726139725</v>
       </c>
       <c r="D63">
-        <v>-0.01278620603791504</v>
+        <v>-0.004603708238296115</v>
       </c>
       <c r="E63">
-        <v>0.0417966646742462</v>
+        <v>-0.002125518965032963</v>
       </c>
       <c r="F63">
-        <v>0.01178098417419342</v>
+        <v>-0.02200253477285501</v>
       </c>
       <c r="G63">
-        <v>0.04753665343021063</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01541949235593269</v>
+      </c>
+      <c r="H63">
+        <v>-0.01411973704083755</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03418604353912313</v>
+        <v>-0.03947425793193986</v>
       </c>
       <c r="C64">
-        <v>0.02525005605598973</v>
+        <v>0.01293169513862745</v>
       </c>
       <c r="D64">
-        <v>0.02010632119425245</v>
+        <v>-0.02964466772637064</v>
       </c>
       <c r="E64">
-        <v>0.04326090051576009</v>
+        <v>-0.01151063692555058</v>
       </c>
       <c r="F64">
-        <v>0.02940161271819494</v>
+        <v>-0.02695151386554847</v>
       </c>
       <c r="G64">
-        <v>0.06365715123395513</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.01981641183530099</v>
+      </c>
+      <c r="H64">
+        <v>0.02579740990309051</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.0122316575750018</v>
+        <v>-0.03517125377161918</v>
       </c>
       <c r="C65">
-        <v>-0.001474904595622012</v>
+        <v>-0.001301355111041567</v>
       </c>
       <c r="D65">
-        <v>-0.01179717291397828</v>
+        <v>-0.04043581409363515</v>
       </c>
       <c r="E65">
-        <v>0.009724402964981064</v>
+        <v>-0.005553463008025842</v>
       </c>
       <c r="F65">
-        <v>0.008972283504996154</v>
+        <v>-0.03774375332256309</v>
       </c>
       <c r="G65">
-        <v>-0.0152643639877879</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.002764073827545945</v>
+      </c>
+      <c r="H65">
+        <v>0.06023258476146439</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03794213347544254</v>
+        <v>-0.03154721886151503</v>
       </c>
       <c r="C66">
-        <v>0.02806566162972352</v>
+        <v>0.00891604079556817</v>
       </c>
       <c r="D66">
-        <v>-0.02248978991938563</v>
+        <v>-0.07206994269734249</v>
       </c>
       <c r="E66">
-        <v>0.04222799592521769</v>
+        <v>0.00714555083204837</v>
       </c>
       <c r="F66">
-        <v>0.0417738954173525</v>
+        <v>-0.0646160538299312</v>
       </c>
       <c r="G66">
-        <v>-0.004001318170611687</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.04683182431534332</v>
+      </c>
+      <c r="H66">
+        <v>0.05898352534493516</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02673606801495598</v>
+        <v>-0.03708283201830268</v>
       </c>
       <c r="C67">
-        <v>0.003819684885130215</v>
+        <v>0.02167629144261827</v>
       </c>
       <c r="D67">
-        <v>0.0117569035930355</v>
+        <v>0.007885856810790483</v>
       </c>
       <c r="E67">
-        <v>-0.02987945393488512</v>
+        <v>-0.002217951808759099</v>
       </c>
       <c r="F67">
-        <v>0.01390764861398108</v>
+        <v>-0.01144850922858151</v>
       </c>
       <c r="G67">
-        <v>-0.005911993933776256</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01653212695001109</v>
+      </c>
+      <c r="H67">
+        <v>0.03207633420519045</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08530843915792975</v>
+        <v>-0.1452176385854822</v>
       </c>
       <c r="C68">
-        <v>0.0634477969231889</v>
+        <v>0.03073785425542281</v>
       </c>
       <c r="D68">
-        <v>0.03622305882560805</v>
+        <v>0.1979859690325473</v>
       </c>
       <c r="E68">
-        <v>-0.1744964475269275</v>
+        <v>0.03660689798066923</v>
       </c>
       <c r="F68">
-        <v>0.03910198017735564</v>
+        <v>0.1081893144261261</v>
       </c>
       <c r="G68">
-        <v>-0.05037051190573048</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01984386140175802</v>
+      </c>
+      <c r="H68">
+        <v>-0.03933072713778586</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07343728405954733</v>
+        <v>-0.05759213661678609</v>
       </c>
       <c r="C69">
-        <v>0.03316422076215788</v>
+        <v>0.03227401377132739</v>
       </c>
       <c r="D69">
-        <v>-0.02689953387736534</v>
+        <v>-0.02793439207075492</v>
       </c>
       <c r="E69">
-        <v>0.009289262879239245</v>
+        <v>0.004871285372729697</v>
       </c>
       <c r="F69">
-        <v>0.02472904510001303</v>
+        <v>-0.03095541220524469</v>
       </c>
       <c r="G69">
-        <v>0.07562942326705006</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.002696953410059949</v>
+      </c>
+      <c r="H69">
+        <v>-0.0127967776077245</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1070237324537126</v>
+        <v>-0.1391186942511928</v>
       </c>
       <c r="C71">
-        <v>0.06972854888767217</v>
+        <v>0.03864867505189309</v>
       </c>
       <c r="D71">
-        <v>0.01367807831238185</v>
+        <v>0.1841999695644395</v>
       </c>
       <c r="E71">
-        <v>-0.2171727211060874</v>
+        <v>0.03699015266001603</v>
       </c>
       <c r="F71">
-        <v>0.05875260237836281</v>
+        <v>0.1131256360086939</v>
       </c>
       <c r="G71">
-        <v>-0.009579448166605756</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01900471743949583</v>
+      </c>
+      <c r="H71">
+        <v>-0.02362949292453245</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1089438267981618</v>
+        <v>-0.08747683435284014</v>
       </c>
       <c r="C72">
-        <v>0.09505142707060119</v>
+        <v>0.04924945488042261</v>
       </c>
       <c r="D72">
-        <v>-0.01891436540205664</v>
+        <v>-0.05905210713493422</v>
       </c>
       <c r="E72">
-        <v>0.07422989492884685</v>
+        <v>0.009243660968757462</v>
       </c>
       <c r="F72">
-        <v>0.0795103618042361</v>
+        <v>-0.109388788392671</v>
       </c>
       <c r="G72">
-        <v>-0.1698138588488648</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.09767193983239511</v>
+      </c>
+      <c r="H72">
+        <v>0.1492280739513215</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2519658538419584</v>
+        <v>-0.2386427810998035</v>
       </c>
       <c r="C73">
-        <v>0.08777019486708049</v>
+        <v>0.06720500787558623</v>
       </c>
       <c r="D73">
-        <v>-0.06815512295799325</v>
+        <v>-0.04979418101571841</v>
       </c>
       <c r="E73">
-        <v>-0.01319924165238422</v>
+        <v>0.08511266119879801</v>
       </c>
       <c r="F73">
-        <v>0.1536037886925642</v>
+        <v>-0.07476166701474175</v>
       </c>
       <c r="G73">
-        <v>-0.5298529773112878</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1853594695975293</v>
+      </c>
+      <c r="H73">
+        <v>0.5140325414784344</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1234269375081154</v>
+        <v>-0.1144885345615468</v>
       </c>
       <c r="C74">
-        <v>0.04107234691092268</v>
+        <v>0.05895244559544571</v>
       </c>
       <c r="D74">
-        <v>-0.03609748209863049</v>
+        <v>-0.07760623723571711</v>
       </c>
       <c r="E74">
-        <v>0.02809293363188623</v>
+        <v>0.007682191316491534</v>
       </c>
       <c r="F74">
-        <v>-0.1080157557656053</v>
+        <v>-0.0768924215671503</v>
       </c>
       <c r="G74">
-        <v>0.01123007338390302</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.07715378856079559</v>
+      </c>
+      <c r="H74">
+        <v>-0.008992578700990199</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2185764268039188</v>
+        <v>-0.2272774291125142</v>
       </c>
       <c r="C75">
-        <v>0.1181862541657764</v>
+        <v>0.1191730510885776</v>
       </c>
       <c r="D75">
-        <v>-0.06990613547684645</v>
+        <v>-0.1185173810252038</v>
       </c>
       <c r="E75">
-        <v>0.0880542125482162</v>
+        <v>0.02707362912468103</v>
       </c>
       <c r="F75">
-        <v>-0.1748595747698063</v>
+        <v>-0.1545995555307311</v>
       </c>
       <c r="G75">
-        <v>0.1101062260409859</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.160226140388262</v>
+      </c>
+      <c r="H75">
+        <v>-0.09096476540518278</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2640953984365356</v>
+        <v>-0.2083590066157464</v>
       </c>
       <c r="C76">
-        <v>0.120975253186848</v>
+        <v>0.1133486533525869</v>
       </c>
       <c r="D76">
-        <v>-0.009506598802620808</v>
+        <v>-0.1066842887486391</v>
       </c>
       <c r="E76">
-        <v>0.05382128364604594</v>
+        <v>-0.01399877681265111</v>
       </c>
       <c r="F76">
-        <v>-0.1953159464724101</v>
+        <v>-0.1474135531231767</v>
       </c>
       <c r="G76">
-        <v>0.09189723546446753</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.17316993301026</v>
+      </c>
+      <c r="H76">
+        <v>-0.09166786756950772</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1409008593683202</v>
+        <v>-0.07497346221918644</v>
       </c>
       <c r="C77">
-        <v>-0.01873829406854422</v>
+        <v>0.01418633150257111</v>
       </c>
       <c r="D77">
-        <v>-0.06675919344402872</v>
+        <v>-0.07306046578719454</v>
       </c>
       <c r="E77">
-        <v>0.1154232468540513</v>
+        <v>0.01349118357478062</v>
       </c>
       <c r="F77">
-        <v>0.2446083871439703</v>
+        <v>-0.003437868445783122</v>
       </c>
       <c r="G77">
-        <v>0.1217591624488498</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.132523274619043</v>
+      </c>
+      <c r="H77">
+        <v>-0.06722125136001642</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05113425950252897</v>
+        <v>-0.03521813199216922</v>
       </c>
       <c r="C78">
-        <v>0.01486876622312371</v>
+        <v>0.01193766169475364</v>
       </c>
       <c r="D78">
-        <v>-0.03257305856996455</v>
+        <v>-0.05805381617815777</v>
       </c>
       <c r="E78">
-        <v>0.1121715776342834</v>
+        <v>-0.003888627021535026</v>
       </c>
       <c r="F78">
-        <v>0.03544531290557</v>
+        <v>-0.05352134791197929</v>
       </c>
       <c r="G78">
-        <v>0.04790291097914767</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.05176392632983623</v>
+      </c>
+      <c r="H78">
+        <v>0.02792840333186218</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.220553264488381</v>
+        <v>-0.177416071523381</v>
       </c>
       <c r="C80">
-        <v>-0.1423099361616569</v>
+        <v>0.06659569799187295</v>
       </c>
       <c r="D80">
-        <v>0.9277878110740216</v>
+        <v>-0.01316567922677887</v>
       </c>
       <c r="E80">
-        <v>0.2178436921124315</v>
+        <v>-0.960514320481313</v>
       </c>
       <c r="F80">
-        <v>0.03832220411969548</v>
+        <v>0.1211702100543722</v>
       </c>
       <c r="G80">
-        <v>-0.03944255812492966</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.09732381939757143</v>
+      </c>
+      <c r="H80">
+        <v>0.00927306963897576</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.155319808185747</v>
+        <v>-0.1512840195274054</v>
       </c>
       <c r="C81">
-        <v>0.09624287821471078</v>
+        <v>0.07895876879051844</v>
       </c>
       <c r="D81">
-        <v>-0.0193402118113527</v>
+        <v>-0.06974742674001642</v>
       </c>
       <c r="E81">
-        <v>0.05259913476713163</v>
+        <v>0.002614612601115563</v>
       </c>
       <c r="F81">
-        <v>-0.1668539915141507</v>
+        <v>-0.103017463822978</v>
       </c>
       <c r="G81">
-        <v>0.03555160939052833</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1030327983086028</v>
+      </c>
+      <c r="H81">
+        <v>-0.06640327495822393</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05068348455498194</v>
+        <v>-0.03793392528297672</v>
       </c>
       <c r="C83">
-        <v>-0.006776254194664869</v>
+        <v>0.009982107771348871</v>
       </c>
       <c r="D83">
-        <v>-0.03802072039037917</v>
+        <v>-0.01943332470787986</v>
       </c>
       <c r="E83">
-        <v>0.03909163927824436</v>
+        <v>0.01258789316377243</v>
       </c>
       <c r="F83">
-        <v>0.07073317479156939</v>
+        <v>-0.01358757533192811</v>
       </c>
       <c r="G83">
-        <v>0.03578196073456733</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05859519185990808</v>
+      </c>
+      <c r="H83">
+        <v>0.01409618334315511</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2279556740953989</v>
+        <v>-0.2113103081775198</v>
       </c>
       <c r="C85">
-        <v>0.1016599999972053</v>
+        <v>0.0988401969326895</v>
       </c>
       <c r="D85">
-        <v>-0.0412291554278055</v>
+        <v>-0.1256426984449272</v>
       </c>
       <c r="E85">
-        <v>0.05533727306221831</v>
+        <v>0.01627125147269752</v>
       </c>
       <c r="F85">
-        <v>-0.1838683688155487</v>
+        <v>-0.1379866243769306</v>
       </c>
       <c r="G85">
-        <v>0.1128900336307294</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1694301471818372</v>
+      </c>
+      <c r="H85">
+        <v>-0.06229353917905335</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.00259830922104867</v>
+        <v>-0.01382860383882056</v>
       </c>
       <c r="C86">
-        <v>-0.0079367328968521</v>
+        <v>-0.001233574728636276</v>
       </c>
       <c r="D86">
-        <v>-0.001064009614123592</v>
+        <v>-0.004253816692295689</v>
       </c>
       <c r="E86">
-        <v>0.05031703146681731</v>
+        <v>0.008957319410413965</v>
       </c>
       <c r="F86">
-        <v>0.08028899359536512</v>
+        <v>0.002017378783602485</v>
       </c>
       <c r="G86">
-        <v>0.01793450332498655</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.087019818876212</v>
+      </c>
+      <c r="H86">
+        <v>0.03722025421310735</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03106716784259178</v>
+        <v>-0.02758329014582077</v>
       </c>
       <c r="C87">
-        <v>0.008640543880543847</v>
+        <v>0.00454055904183908</v>
       </c>
       <c r="D87">
-        <v>-0.0146232365118172</v>
+        <v>-0.02585398524422412</v>
       </c>
       <c r="E87">
-        <v>0.03297418906038591</v>
+        <v>0.001144142598482697</v>
       </c>
       <c r="F87">
-        <v>0.08162517129482803</v>
+        <v>-0.02654809202950461</v>
       </c>
       <c r="G87">
-        <v>-0.02975087628261298</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.09368368094463557</v>
+      </c>
+      <c r="H87">
+        <v>0.02720784670954924</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01051656604465359</v>
+        <v>-0.03859680283527259</v>
       </c>
       <c r="C88">
-        <v>0.01890030789773863</v>
+        <v>-0.007359119732979862</v>
       </c>
       <c r="D88">
-        <v>0.02401345032246962</v>
+        <v>0.005608058817028731</v>
       </c>
       <c r="E88">
-        <v>-0.005323158112679631</v>
+        <v>-0.007240278711192065</v>
       </c>
       <c r="F88">
-        <v>0.03755259966837413</v>
+        <v>-0.01308266414073613</v>
       </c>
       <c r="G88">
-        <v>0.07869563080152635</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.001620964849373061</v>
+      </c>
+      <c r="H88">
+        <v>0.006713039828668826</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1278904019225362</v>
+        <v>-0.2222862840530603</v>
       </c>
       <c r="C89">
-        <v>0.08931627994488636</v>
+        <v>0.0575453607888697</v>
       </c>
       <c r="D89">
-        <v>0.01967479985321392</v>
+        <v>0.317089234690606</v>
       </c>
       <c r="E89">
-        <v>-0.2984666970328257</v>
+        <v>0.07911508730569033</v>
       </c>
       <c r="F89">
-        <v>0.1175503403790015</v>
+        <v>0.1630237887875946</v>
       </c>
       <c r="G89">
-        <v>0.04853438021169482</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.001257354860456038</v>
+      </c>
+      <c r="H89">
+        <v>-0.0305207785856356</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1147058819579894</v>
+        <v>-0.1773856658616857</v>
       </c>
       <c r="C90">
-        <v>0.08974893935974816</v>
+        <v>0.04697579436020994</v>
       </c>
       <c r="D90">
-        <v>0.06592878087492882</v>
+        <v>0.2797734798435197</v>
       </c>
       <c r="E90">
-        <v>-0.2893694141316028</v>
+        <v>0.05205375304365625</v>
       </c>
       <c r="F90">
-        <v>0.07983196295636839</v>
+        <v>0.1565326836407621</v>
       </c>
       <c r="G90">
-        <v>-0.005702038871268147</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.0319255240518343</v>
+      </c>
+      <c r="H90">
+        <v>-0.04583071491023047</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2929208652842467</v>
+        <v>-0.2323004244361836</v>
       </c>
       <c r="C91">
-        <v>0.09535448462533132</v>
+        <v>0.1198788633206476</v>
       </c>
       <c r="D91">
-        <v>-0.05968191180052247</v>
+        <v>-0.1222331502486941</v>
       </c>
       <c r="E91">
-        <v>0.04355802398524666</v>
+        <v>0.0180771116675769</v>
       </c>
       <c r="F91">
-        <v>-0.2630879878958103</v>
+        <v>-0.1413291758757991</v>
       </c>
       <c r="G91">
-        <v>0.09120590203275823</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.2100449182933692</v>
+      </c>
+      <c r="H91">
+        <v>-0.1241298631334224</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1872490991012997</v>
+        <v>-0.232196641384588</v>
       </c>
       <c r="C92">
-        <v>0.07389125506664498</v>
+        <v>0.1148771486573364</v>
       </c>
       <c r="D92">
-        <v>0.09814965911405824</v>
+        <v>0.2225576115069902</v>
       </c>
       <c r="E92">
-        <v>-0.4483834669308024</v>
+        <v>0.03454165406911236</v>
       </c>
       <c r="F92">
-        <v>0.1798430811863588</v>
+        <v>0.1279580731251792</v>
       </c>
       <c r="G92">
-        <v>0.2945909798914269</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.04324997168524805</v>
+      </c>
+      <c r="H92">
+        <v>-0.1431187212300832</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1287876775862766</v>
+        <v>-0.2031093845888695</v>
       </c>
       <c r="C93">
-        <v>0.0702911045507857</v>
+        <v>0.0604209932550463</v>
       </c>
       <c r="D93">
-        <v>0.07890390819273919</v>
+        <v>0.2950522724980295</v>
       </c>
       <c r="E93">
-        <v>-0.3975628654778801</v>
+        <v>0.06791773129961463</v>
       </c>
       <c r="F93">
-        <v>0.0315219880204324</v>
+        <v>0.1938576522764275</v>
       </c>
       <c r="G93">
-        <v>-0.03795475282518907</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.04190286521062906</v>
+      </c>
+      <c r="H93">
+        <v>0.01492039548208465</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2601519098827908</v>
+        <v>-0.2509407424130073</v>
       </c>
       <c r="C94">
-        <v>0.1235054474923185</v>
+        <v>0.1095109150999762</v>
       </c>
       <c r="D94">
-        <v>-0.02655520263049892</v>
+        <v>-0.104191768420401</v>
       </c>
       <c r="E94">
-        <v>0.03895321758327514</v>
+        <v>0.03532890094386498</v>
       </c>
       <c r="F94">
-        <v>-0.3039559206276599</v>
+        <v>-0.1594626302212129</v>
       </c>
       <c r="G94">
-        <v>0.009742726432653436</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.21579085840735</v>
+      </c>
+      <c r="H94">
+        <v>-0.1360398232541019</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07896159745591817</v>
+        <v>-0.06652384358721701</v>
       </c>
       <c r="C95">
-        <v>0.01723834000782728</v>
+        <v>0.03728880067553451</v>
       </c>
       <c r="D95">
-        <v>-0.06573690015727743</v>
+        <v>-0.07655862512800179</v>
       </c>
       <c r="E95">
-        <v>0.07240967424057894</v>
+        <v>0.07344702904832115</v>
       </c>
       <c r="F95">
-        <v>0.05739040234548798</v>
+        <v>-0.03207180172563113</v>
       </c>
       <c r="G95">
-        <v>0.3252465174691745</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.06146805820196151</v>
+      </c>
+      <c r="H95">
+        <v>0.001319616650936333</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1871050722855211</v>
+        <v>-0.1754784359283993</v>
       </c>
       <c r="C98">
-        <v>0.04158087742416902</v>
+        <v>0.08180389384625127</v>
       </c>
       <c r="D98">
-        <v>-0.05724269072525592</v>
+        <v>-0.03654752826455939</v>
       </c>
       <c r="E98">
-        <v>-0.04376560912811218</v>
+        <v>0.05682383990063252</v>
       </c>
       <c r="F98">
-        <v>0.05074315623284634</v>
+        <v>-0.0338428832142922</v>
       </c>
       <c r="G98">
-        <v>-0.3384920239260903</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.1535842386349371</v>
+      </c>
+      <c r="H98">
+        <v>0.3727251653668244</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002045020735480417</v>
+        <v>-0.01315294469480184</v>
       </c>
       <c r="C101">
-        <v>0.03085897330669132</v>
+        <v>0.000904706940650405</v>
       </c>
       <c r="D101">
-        <v>-0.006643434885601473</v>
+        <v>-0.00315687680354143</v>
       </c>
       <c r="E101">
-        <v>0.1332650827265409</v>
+        <v>-0.006549378408353197</v>
       </c>
       <c r="F101">
-        <v>0.1544542990727757</v>
+        <v>-0.03657808841436691</v>
       </c>
       <c r="G101">
-        <v>0.04013826602862128</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.09831930607992115</v>
+      </c>
+      <c r="H101">
+        <v>-0.07428785039559689</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09491978592739822</v>
+        <v>-0.1054849989802935</v>
       </c>
       <c r="C102">
-        <v>0.03004283515221331</v>
+        <v>0.04148218438772023</v>
       </c>
       <c r="D102">
-        <v>-0.01322397815871836</v>
+        <v>-0.06319298032802349</v>
       </c>
       <c r="E102">
-        <v>0.06311752261733376</v>
+        <v>0.001704040936419492</v>
       </c>
       <c r="F102">
-        <v>-0.1228064642984684</v>
+        <v>-0.07156609275805879</v>
       </c>
       <c r="G102">
-        <v>0.1024235169511588</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.09407760276567576</v>
+      </c>
+      <c r="H102">
+        <v>-0.05349125786325457</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02621866923575993</v>
+        <v>-0.02196438379578559</v>
       </c>
       <c r="C103">
-        <v>0.01296952976545319</v>
+        <v>0.009853461239837278</v>
       </c>
       <c r="D103">
-        <v>-0.01202575244539351</v>
+        <v>-0.01323670137549264</v>
       </c>
       <c r="E103">
-        <v>0.005106003723541994</v>
+        <v>-0.004958075724271586</v>
       </c>
       <c r="F103">
-        <v>-0.01768064147987743</v>
+        <v>-0.0182833663889621</v>
       </c>
       <c r="G103">
-        <v>0.03180065366937605</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.006568020064112388</v>
+      </c>
+      <c r="H103">
+        <v>-0.01067506450116779</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.3403475204732219</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9185726121857952</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.06109961054093281</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02491166503433111</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1571738278575315</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.04036469501082181</v>
+      </c>
+      <c r="H104">
+        <v>-0.03051834936209517</v>
       </c>
     </row>
   </sheetData>
